--- a/Mifos Automation Excels/Client/3133-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-OVERDUE-FEE-%INTEREST-Regular-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3133-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-OVERDUE-FEE-%INTEREST-Regular-CASH-Makerepayment1.xlsx
@@ -4,22 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
     <sheet name="Summary" sheetId="3" r:id="rId2"/>
     <sheet name="Repayment schedule" sheetId="1" r:id="rId3"/>
     <sheet name="Transactions" sheetId="4" r:id="rId4"/>
-    <sheet name="Acc_Disbursement" sheetId="7" r:id="rId5"/>
-    <sheet name="Acc_Repayment" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>#</t>
   </si>
@@ -105,64 +103,7 @@
     <t>Head Office</t>
   </si>
   <si>
-    <t>Entry ID</t>
-  </si>
-  <si>
-    <t>Transaction ID</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Created By</t>
-  </si>
-  <si>
-    <t>Account</t>
-  </si>
-  <si>
-    <t>Debit</t>
-  </si>
-  <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>mifos</t>
-  </si>
-  <si>
-    <t>ASSET</t>
-  </si>
-  <si>
-    <t>Cash(1)</t>
-  </si>
-  <si>
-    <t>Loan portfolio(2)</t>
-  </si>
-  <si>
     <t>Repayment</t>
-  </si>
-  <si>
-    <t>INCOME</t>
-  </si>
-  <si>
-    <t>Income from interest(7)</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>$ 5,000</t>
-  </si>
-  <si>
-    <t>L5</t>
-  </si>
-  <si>
-    <t>$ 50.96</t>
-  </si>
-  <si>
-    <t>$ 896.6</t>
-  </si>
-  <si>
-    <t>$ 845.64</t>
   </si>
   <si>
     <t>clickonmakerepayment</t>
@@ -178,7 +119,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,12 +134,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -278,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -300,17 +235,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -615,7 +539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -627,17 +551,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="16">
+        <v>31</v>
+      </c>
+      <c r="B2" s="11">
         <v>42036</v>
       </c>
     </row>
@@ -651,7 +575,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,10 +669,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>17.760000000000002</v>
+        <v>0.89</v>
       </c>
       <c r="B5" s="6">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="C5" s="6">
         <v>0</v>
@@ -757,10 +681,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="6">
-        <v>17.760000000000002</v>
+        <v>0.38</v>
       </c>
       <c r="F5" s="6">
-        <v>0</v>
+        <v>0.38</v>
       </c>
     </row>
   </sheetData>
@@ -774,7 +698,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,7 +796,7 @@
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -901,21 +825,18 @@
         <v>0</v>
       </c>
       <c r="J3" s="6">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="K3" s="6">
-        <v>896.6</v>
+        <v>888.23</v>
       </c>
       <c r="L3" s="6">
-        <v>896.6</v>
+        <v>888.23</v>
       </c>
       <c r="M3" s="6">
         <v>0</v>
       </c>
       <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="O3" s="6">
         <v>0</v>
       </c>
       <c r="P3" s="6">
@@ -947,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="6">
-        <v>8.8800000000000008</v>
+        <v>0.38</v>
       </c>
       <c r="K4" s="6">
-        <v>896.6</v>
+        <v>888.1</v>
       </c>
       <c r="L4" s="6">
-        <v>8.8800000000000008</v>
+        <v>0</v>
       </c>
       <c r="M4" s="6">
         <v>0</v>
@@ -961,11 +882,8 @@
       <c r="N4" s="6">
         <v>0</v>
       </c>
-      <c r="O4" s="6">
-        <v>0</v>
-      </c>
       <c r="P4" s="6">
-        <v>878.84</v>
+        <v>888.1</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -993,10 +911,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="6">
-        <v>8.8800000000000008</v>
+        <v>0</v>
       </c>
       <c r="K5" s="6">
-        <v>896.6</v>
+        <v>887.72</v>
       </c>
       <c r="L5" s="6">
         <v>0</v>
@@ -1007,11 +925,8 @@
       <c r="N5" s="6">
         <v>0</v>
       </c>
-      <c r="O5" s="6">
-        <v>0</v>
-      </c>
       <c r="P5" s="6">
-        <v>987.72</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1053,9 +968,6 @@
       <c r="N6" s="6">
         <v>0</v>
       </c>
-      <c r="O6" s="6">
-        <v>0</v>
-      </c>
       <c r="P6" s="6">
         <v>887.72</v>
       </c>
@@ -1099,9 +1011,6 @@
       <c r="N7" s="6">
         <v>0</v>
       </c>
-      <c r="O7" s="6">
-        <v>0</v>
-      </c>
       <c r="P7" s="6">
         <v>887.72</v>
       </c>
@@ -1143,9 +1052,6 @@
         <v>0</v>
       </c>
       <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="O8" s="6">
         <v>0</v>
       </c>
       <c r="P8" s="6">
@@ -1160,15 +1066,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.140625" style="4" bestFit="1" customWidth="1"/>
@@ -1215,7 +1121,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>75</v>
+        <v>1738</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>27</v>
@@ -1224,10 +1130,10 @@
         <v>42036</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E2" s="6">
-        <v>896.6</v>
+        <v>888.23</v>
       </c>
       <c r="F2" s="6">
         <v>836.76</v>
@@ -1239,17 +1145,17 @@
         <v>0</v>
       </c>
       <c r="I2" s="6">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="J2" s="9">
-        <v>4172.12</v>
+        <v>4163.24</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>68</v>
+        <v>678</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>27</v>
@@ -1280,239 +1186,6 @@
       </c>
       <c r="K3"/>
       <c r="L3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J6" s="15"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="14">
-        <v>42005</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="14">
-        <v>42005</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="12"/>
-    <col min="2" max="2" width="17" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="12"/>
-    <col min="7" max="7" width="21.85546875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="12"/>
-    <col min="9" max="9" width="8.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>3</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="12">
-        <v>42036</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>4</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="12">
-        <v>42036</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>5</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="12">
-        <v>42036</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>46</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/3133-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-OVERDUE-FEE-%INTEREST-Regular-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3133-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-OVERDUE-FEE-%INTEREST-Regular-CASH-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -695,10 +695,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,12 +716,13 @@
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -761,17 +762,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -797,8 +799,9 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -836,14 +839,15 @@
       <c r="M3" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="6"/>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -879,14 +883,15 @@
       <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
         <v>888.1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -922,14 +927,15 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
+      <c r="N5" s="6"/>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -965,14 +971,15 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1008,14 +1015,15 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
+      <c r="N7" s="6"/>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1051,10 +1059,11 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
         <v>741.06</v>
       </c>
     </row>
@@ -1068,7 +1077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
